--- a/workshop_2/Classes.xlsx
+++ b/workshop_2/Classes.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$14</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Boat</t>
   </si>
@@ -98,20 +98,38 @@
     <t>new Registry()</t>
   </si>
   <si>
-    <t>new Authentication()</t>
-  </si>
-  <si>
-    <t>Authentication.validateID()</t>
-  </si>
-  <si>
     <t>writeToRegister()</t>
+  </si>
+  <si>
+    <t>getLength()</t>
+  </si>
+  <si>
+    <t>getType()</t>
+  </si>
+  <si>
+    <t>getName()</t>
+  </si>
+  <si>
+    <t>getID()</t>
+  </si>
+  <si>
+    <t>getSecurityNumber()</t>
+  </si>
+  <si>
+    <t>new Authentication(int id)</t>
+  </si>
+  <si>
+    <t>setLength()</t>
+  </si>
+  <si>
+    <t>setType()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,9 +139,10 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,31 +152,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -211,14 +217,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,127 +501,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="3" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="3" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="3" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20" style="5" customWidth="1"/>
+    <col min="1" max="4" width="22.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G7" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G8" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G10" s="5" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/workshop_2/Classes.xlsx
+++ b/workshop_2/Classes.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Boat</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>setType()</t>
+  </si>
+  <si>
+    <t>setName()</t>
+  </si>
+  <si>
+    <t>setID()</t>
+  </si>
+  <si>
+    <t>setSecurityNumber()</t>
   </si>
 </sst>
 </file>
@@ -504,7 +513,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +652,9 @@
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
         <v>16</v>
@@ -653,7 +664,9 @@
     </row>
     <row r="11" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -661,7 +674,9 @@
     </row>
     <row r="12" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -669,7 +684,6 @@
     </row>
     <row r="13" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>

--- a/workshop_2/Classes.xlsx
+++ b/workshop_2/Classes.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Boat</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>setSecurityNumber()</t>
+  </si>
+  <si>
+    <t>SecurityNumber</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,6 +553,9 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
@@ -563,6 +569,9 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -577,6 +586,9 @@
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>20</v>
@@ -639,9 +651,6 @@
       <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
@@ -668,7 +677,9 @@
         <v>32</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>

--- a/workshop_2/Classes.xlsx
+++ b/workshop_2/Classes.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="24840" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="24780" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$G$24</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Boat</t>
   </si>
@@ -59,48 +59,12 @@
     <t>SecurityNr</t>
   </si>
   <si>
-    <t>BoatType</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
     <t>validateID()</t>
   </si>
   <si>
-    <t>CreateMember()</t>
-  </si>
-  <si>
-    <t>boats{}</t>
-  </si>
-  <si>
-    <t>DeleteMember()</t>
-  </si>
-  <si>
-    <t>loadMembers()</t>
-  </si>
-  <si>
-    <t>loadBoats()</t>
-  </si>
-  <si>
-    <t>members{}</t>
-  </si>
-  <si>
-    <t>createLists()</t>
-  </si>
-  <si>
-    <t>shortList{}</t>
-  </si>
-  <si>
-    <t>longList{}</t>
-  </si>
-  <si>
     <t>new Registry()</t>
   </si>
   <si>
-    <t>writeToRegister()</t>
-  </si>
-  <si>
     <t>getLength()</t>
   </si>
   <si>
@@ -116,9 +80,6 @@
     <t>getSecurityNumber()</t>
   </si>
   <si>
-    <t>new Authentication(int id)</t>
-  </si>
-  <si>
     <t>setLength()</t>
   </si>
   <si>
@@ -134,14 +95,83 @@
     <t>setSecurityNumber()</t>
   </si>
   <si>
-    <t>SecurityNumber</t>
+    <t>lengthOfBoat</t>
+  </si>
+  <si>
+    <t>typeOfBoat</t>
+  </si>
+  <si>
+    <t>listOfBoats[]</t>
+  </si>
+  <si>
+    <t>numberOfBoats</t>
+  </si>
+  <si>
+    <t>addBoat()</t>
+  </si>
+  <si>
+    <t>manageBoat()</t>
+  </si>
+  <si>
+    <t>validateLength()</t>
+  </si>
+  <si>
+    <t>securityNumber</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>iD</t>
+  </si>
+  <si>
+    <t>createMember()</t>
+  </si>
+  <si>
+    <t>validateSecurityNumber()</t>
+  </si>
+  <si>
+    <t>validateName()</t>
+  </si>
+  <si>
+    <t>writeMemberToRegistry()</t>
+  </si>
+  <si>
+    <t>listOfMembers&lt;&gt;</t>
+  </si>
+  <si>
+    <t>nextValidID</t>
+  </si>
+  <si>
+    <t>getNextValidID()</t>
+  </si>
+  <si>
+    <t>constainsID()</t>
+  </si>
+  <si>
+    <t>deleteMember()</t>
+  </si>
+  <si>
+    <t>numberOfBoats()</t>
+  </si>
+  <si>
+    <t>loadRegistry()</t>
+  </si>
+  <si>
+    <t>loadFromFile()</t>
+  </si>
+  <si>
+    <t>writeBoatToRegistry()</t>
+  </si>
+  <si>
+    <t>new Authentication()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,16 +199,29 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -207,7 +250,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -220,7 +263,49 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -229,13 +314,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,217 +606,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="22.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="5" customWidth="1"/>
+    <col min="2" max="4" width="24.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G2" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="2:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="2:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="2:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/workshop_2/Classes.xlsx
+++ b/workshop_2/Classes.xlsx
@@ -611,7 +611,7 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A12" zoomScale="125" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
